--- a/Code/Results/Cases/Case_1_102/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_102/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9613860128494948</v>
+        <v>1.011274565685031</v>
       </c>
       <c r="D2">
-        <v>1.030063006030439</v>
+        <v>1.02853621527831</v>
       </c>
       <c r="E2">
-        <v>0.9730197626743321</v>
+        <v>1.013456855504116</v>
       </c>
       <c r="F2">
-        <v>0.9747914523306583</v>
+        <v>1.024805272200165</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049144040049307</v>
+        <v>1.03066174483276</v>
       </c>
       <c r="J2">
-        <v>0.9847863636110582</v>
+        <v>1.016523982702583</v>
       </c>
       <c r="K2">
-        <v>1.04111881986976</v>
+        <v>1.031352746829687</v>
       </c>
       <c r="L2">
-        <v>0.9848682270406981</v>
+        <v>1.0163179513266</v>
       </c>
       <c r="M2">
-        <v>0.9866135240812135</v>
+        <v>1.027632697022692</v>
       </c>
       <c r="N2">
-        <v>0.9861848732039605</v>
+        <v>1.017967563354951</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9674385577747387</v>
+        <v>1.012502400820087</v>
       </c>
       <c r="D3">
-        <v>1.032783301542322</v>
+        <v>1.028995235621454</v>
       </c>
       <c r="E3">
-        <v>0.9779250765521972</v>
+        <v>1.014505626989326</v>
       </c>
       <c r="F3">
-        <v>0.9821863184351143</v>
+        <v>1.02625049380944</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050424550373161</v>
+        <v>1.03077321492864</v>
       </c>
       <c r="J3">
-        <v>0.9888580325569568</v>
+        <v>1.017383520173195</v>
       </c>
       <c r="K3">
-        <v>1.04301321740452</v>
+        <v>1.031620664893503</v>
       </c>
       <c r="L3">
-        <v>0.9888484256336763</v>
+        <v>1.017170776662011</v>
       </c>
       <c r="M3">
-        <v>0.9930523195764449</v>
+        <v>1.028883354028757</v>
       </c>
       <c r="N3">
-        <v>0.9902623243867894</v>
+        <v>1.018828321467362</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9712497032747954</v>
+        <v>1.013296300454315</v>
       </c>
       <c r="D4">
-        <v>1.03448581394453</v>
+        <v>1.029289502745805</v>
       </c>
       <c r="E4">
-        <v>0.9810210467504927</v>
+        <v>1.015184093410783</v>
       </c>
       <c r="F4">
-        <v>0.9868188310054927</v>
+        <v>1.027181442250794</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051206234839833</v>
+        <v>1.030841896708439</v>
       </c>
       <c r="J4">
-        <v>0.991418575995853</v>
+        <v>1.017938678159727</v>
       </c>
       <c r="K4">
-        <v>1.044185106271428</v>
+        <v>1.031790556900791</v>
       </c>
       <c r="L4">
-        <v>0.9913540598249335</v>
+        <v>1.017721864839092</v>
       </c>
       <c r="M4">
-        <v>0.9970789882309592</v>
+        <v>1.029687914664434</v>
       </c>
       <c r="N4">
-        <v>0.9928265040910672</v>
+        <v>1.019384267841912</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9728279768234244</v>
+        <v>1.013629917383936</v>
       </c>
       <c r="D5">
-        <v>1.035188102239992</v>
+        <v>1.029412552283105</v>
       </c>
       <c r="E5">
-        <v>0.9823048022638832</v>
+        <v>1.015469284551913</v>
       </c>
       <c r="F5">
-        <v>0.9887314996943843</v>
+        <v>1.027571809621712</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051523879467196</v>
+        <v>1.030869944160312</v>
       </c>
       <c r="J5">
-        <v>0.9924781155165279</v>
+        <v>1.018171824287327</v>
       </c>
       <c r="K5">
-        <v>1.044665173912937</v>
+        <v>1.031861147344941</v>
       </c>
       <c r="L5">
-        <v>0.9923914951150228</v>
+        <v>1.017953365290317</v>
       </c>
       <c r="M5">
-        <v>0.9987397871008006</v>
+        <v>1.030025029930159</v>
       </c>
       <c r="N5">
-        <v>0.9938875482793923</v>
+        <v>1.019617745063755</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9730916075751109</v>
+        <v>1.013685925106522</v>
       </c>
       <c r="D6">
-        <v>1.035305241074721</v>
+        <v>1.029433174056169</v>
       </c>
       <c r="E6">
-        <v>0.9825193323418898</v>
+        <v>1.015517167334347</v>
       </c>
       <c r="F6">
-        <v>0.9890506479929915</v>
+        <v>1.027637295289126</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051576576689384</v>
+        <v>1.030874604956507</v>
       </c>
       <c r="J6">
-        <v>0.99265504796353</v>
+        <v>1.018210956396288</v>
       </c>
       <c r="K6">
-        <v>1.044745049469582</v>
+        <v>1.031872950942328</v>
       </c>
       <c r="L6">
-        <v>0.9925647723842876</v>
+        <v>1.017992224905394</v>
       </c>
       <c r="M6">
-        <v>0.9990168045945789</v>
+        <v>1.030081567346615</v>
       </c>
       <c r="N6">
-        <v>0.9940647319907635</v>
+        <v>1.0196569327448</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9712708846747687</v>
+        <v>1.013300758800292</v>
       </c>
       <c r="D7">
-        <v>1.034495250330767</v>
+        <v>1.029291149537283</v>
       </c>
       <c r="E7">
-        <v>0.9810382691087937</v>
+        <v>1.015187904288528</v>
       </c>
       <c r="F7">
-        <v>0.9868445229751952</v>
+        <v>1.027186662297118</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051210522031768</v>
+        <v>1.030842274728561</v>
       </c>
       <c r="J7">
-        <v>0.9914327990234172</v>
+        <v>1.017941794419407</v>
       </c>
       <c r="K7">
-        <v>1.04419157004954</v>
+        <v>1.031791503405852</v>
       </c>
       <c r="L7">
-        <v>0.9913679837015935</v>
+        <v>1.017724958852899</v>
       </c>
       <c r="M7">
-        <v>0.9971013038943963</v>
+        <v>1.029692423621076</v>
       </c>
       <c r="N7">
-        <v>0.9928407473169619</v>
+        <v>1.019387388527038</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C8">
-        <v>0.9634540860975308</v>
+        <v>1.011689642790092</v>
       </c>
       <c r="D8">
-        <v>1.030994518898066</v>
+        <v>1.028691911481741</v>
       </c>
       <c r="E8">
-        <v>0.9746942737873497</v>
+        <v>1.013811326775708</v>
       </c>
       <c r="F8">
-        <v>0.9773231919791157</v>
+        <v>1.025294564878773</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049586660986504</v>
+        <v>1.030700129662548</v>
       </c>
       <c r="J8">
-        <v>0.9861782635421282</v>
+        <v>1.0168146798471</v>
       </c>
       <c r="K8">
-        <v>1.041770399439427</v>
+        <v>1.031444008255411</v>
       </c>
       <c r="L8">
-        <v>0.9862283002140131</v>
+        <v>1.016606323357727</v>
       </c>
       <c r="M8">
-        <v>0.9888193564344161</v>
+        <v>1.028056336844365</v>
       </c>
       <c r="N8">
-        <v>0.987578749792586</v>
+        <v>1.018258673322757</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9488113732856019</v>
+        <v>1.008845973171714</v>
       </c>
       <c r="D9">
-        <v>1.024365915265103</v>
+        <v>1.027615005125369</v>
       </c>
       <c r="E9">
-        <v>0.9628727079733617</v>
+        <v>1.011384318510748</v>
       </c>
       <c r="F9">
-        <v>0.9592955396478089</v>
+        <v>1.021928057433384</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046353678246706</v>
+        <v>1.030423302941615</v>
       </c>
       <c r="J9">
-        <v>0.9763108970327334</v>
+        <v>1.014820657002179</v>
       </c>
       <c r="K9">
-        <v>1.037075665897081</v>
+        <v>1.030805180663596</v>
       </c>
       <c r="L9">
-        <v>0.9765983109850899</v>
+        <v>1.014629343716847</v>
       </c>
       <c r="M9">
-        <v>0.9730854477208106</v>
+        <v>1.025137233537864</v>
       </c>
       <c r="N9">
-        <v>0.9776973704909451</v>
+        <v>1.016261818736679</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9383686786572226</v>
+        <v>1.006946842443587</v>
       </c>
       <c r="D10">
-        <v>1.019609985338509</v>
+        <v>1.0268830783563</v>
       </c>
       <c r="E10">
-        <v>0.9544906194999644</v>
+        <v>1.009765312790407</v>
       </c>
       <c r="F10">
-        <v>0.9463083348005116</v>
+        <v>1.019661688225166</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043929250939156</v>
+        <v>1.030221098410078</v>
       </c>
       <c r="J10">
-        <v>0.9692605190460053</v>
+        <v>1.013485866536836</v>
       </c>
       <c r="K10">
-        <v>1.033633977731289</v>
+        <v>1.030361570022238</v>
       </c>
       <c r="L10">
-        <v>0.9697332276596093</v>
+        <v>1.013307340221098</v>
       </c>
       <c r="M10">
-        <v>0.9617197458158583</v>
+        <v>1.023166695640034</v>
       </c>
       <c r="N10">
-        <v>0.9706369801587861</v>
+        <v>1.014925132715772</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9336604133808123</v>
+        <v>1.006123656106344</v>
       </c>
       <c r="D11">
-        <v>1.01746369461639</v>
+        <v>1.026562849577683</v>
       </c>
       <c r="E11">
-        <v>0.9507245511832554</v>
+        <v>1.009063999406542</v>
       </c>
       <c r="F11">
-        <v>0.940421648583444</v>
+        <v>1.018675039880131</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042810658310908</v>
+        <v>1.030129366162488</v>
       </c>
       <c r="J11">
-        <v>0.9660793805428961</v>
+        <v>1.012906567117103</v>
       </c>
       <c r="K11">
-        <v>1.032063618592815</v>
+        <v>1.030165294451493</v>
       </c>
       <c r="L11">
-        <v>0.9666396610345713</v>
+        <v>1.012733918284392</v>
       </c>
       <c r="M11">
-        <v>0.9565619426236787</v>
+        <v>1.022307581042747</v>
       </c>
       <c r="N11">
-        <v>0.9674513240741208</v>
+        <v>1.014345010624417</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9318811077455667</v>
+        <v>1.005817756154902</v>
       </c>
       <c r="D12">
-        <v>1.016652732616132</v>
+        <v>1.026443408192872</v>
       </c>
       <c r="E12">
-        <v>0.949303435094818</v>
+        <v>1.008803456746802</v>
       </c>
       <c r="F12">
-        <v>0.9381922849215883</v>
+        <v>1.018307753649629</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042384347360104</v>
+        <v>1.03009466606873</v>
       </c>
       <c r="J12">
-        <v>0.9648769132695633</v>
+        <v>1.012691187580854</v>
       </c>
       <c r="K12">
-        <v>1.031467698727043</v>
+        <v>1.030091760776301</v>
       </c>
       <c r="L12">
-        <v>0.9654709153335111</v>
+        <v>1.012520773318444</v>
       </c>
       <c r="M12">
-        <v>0.9546078175950764</v>
+        <v>1.021987583092373</v>
       </c>
       <c r="N12">
-        <v>0.966247149159335</v>
+        <v>1.014129325224522</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9322641946879372</v>
+        <v>1.005883378768562</v>
       </c>
       <c r="D13">
-        <v>1.016827319763364</v>
+        <v>1.026469051112548</v>
       </c>
       <c r="E13">
-        <v>0.9496093049680973</v>
+        <v>1.008859346048697</v>
       </c>
       <c r="F13">
-        <v>0.9386724837495537</v>
+        <v>1.018386574134373</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042476290226817</v>
+        <v>1.030102137701758</v>
       </c>
       <c r="J13">
-        <v>0.9651358174972494</v>
+        <v>1.012737396403895</v>
       </c>
       <c r="K13">
-        <v>1.031596106682854</v>
+        <v>1.030107562407695</v>
       </c>
       <c r="L13">
-        <v>0.9657225305706545</v>
+        <v>1.012566500488306</v>
       </c>
       <c r="M13">
-        <v>0.9550287648401118</v>
+        <v>1.022056263837041</v>
       </c>
       <c r="N13">
-        <v>0.966506421060721</v>
+        <v>1.014175599669391</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9335139715616132</v>
+        <v>1.006098373035732</v>
       </c>
       <c r="D14">
-        <v>1.017396944547067</v>
+        <v>1.026552986587392</v>
       </c>
       <c r="E14">
-        <v>0.9506075453885175</v>
+        <v>1.009042463774448</v>
       </c>
       <c r="F14">
-        <v>0.9402382617391938</v>
+        <v>1.018644696260421</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042775642915947</v>
+        <v>1.030126510621029</v>
       </c>
       <c r="J14">
-        <v>0.9659804193587745</v>
+        <v>1.012888767912514</v>
       </c>
       <c r="K14">
-        <v>1.03201462070004</v>
+        <v>1.030159228943182</v>
       </c>
       <c r="L14">
-        <v>0.9665434623709609</v>
+        <v>1.012716302739939</v>
       </c>
       <c r="M14">
-        <v>0.9564012123212272</v>
+        <v>1.022281147982192</v>
       </c>
       <c r="N14">
-        <v>0.9673522223537669</v>
+        <v>1.014327186142916</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9342798885097047</v>
+        <v>1.006230820497123</v>
       </c>
       <c r="D15">
-        <v>1.017746068005424</v>
+        <v>1.026604636568748</v>
       </c>
       <c r="E15">
-        <v>0.9512195939070826</v>
+        <v>1.009155282787606</v>
       </c>
       <c r="F15">
-        <v>0.9411972156053358</v>
+        <v>1.018803627499988</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042958635541709</v>
+        <v>1.03014144456633</v>
       </c>
       <c r="J15">
-        <v>0.9664979931583818</v>
+        <v>1.012982006055535</v>
       </c>
       <c r="K15">
-        <v>1.032270790310125</v>
+        <v>1.030190979194253</v>
       </c>
       <c r="L15">
-        <v>0.9670466133357231</v>
+        <v>1.012808580831506</v>
       </c>
       <c r="M15">
-        <v>0.9572416604221199</v>
+        <v>1.022419589184444</v>
       </c>
       <c r="N15">
-        <v>0.9678705311675363</v>
+        <v>1.014420556694794</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9386770205364476</v>
+        <v>1.007001456342757</v>
       </c>
       <c r="D16">
-        <v>1.019750540004651</v>
+        <v>1.026904261502182</v>
       </c>
       <c r="E16">
-        <v>0.9547375419067345</v>
+        <v>1.009811850672825</v>
       </c>
       <c r="F16">
-        <v>0.9466932019450263</v>
+        <v>1.019727056788365</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044001998977352</v>
+        <v>1.030227098455601</v>
       </c>
       <c r="J16">
-        <v>0.9694688074446443</v>
+        <v>1.013524284559835</v>
       </c>
       <c r="K16">
-        <v>1.033736461311315</v>
+        <v>1.030374508026889</v>
       </c>
       <c r="L16">
-        <v>0.9699358663107437</v>
+        <v>1.013345375371713</v>
       </c>
       <c r="M16">
-        <v>0.962056842666798</v>
+        <v>1.023223588443539</v>
       </c>
       <c r="N16">
-        <v>0.9708455643508421</v>
+        <v>1.014963605296771</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.941383665786674</v>
+        <v>1.007484625301137</v>
       </c>
       <c r="D17">
-        <v>1.020984162166444</v>
+        <v>1.027091326033321</v>
       </c>
       <c r="E17">
-        <v>0.9569065449728871</v>
+        <v>1.010223623390185</v>
       </c>
       <c r="F17">
-        <v>0.9500680628139675</v>
+        <v>1.020304877972666</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044637731312799</v>
+        <v>1.030279709329392</v>
       </c>
       <c r="J17">
-        <v>0.9712969186258976</v>
+        <v>1.013864084565271</v>
       </c>
       <c r="K17">
-        <v>1.034634001733895</v>
+        <v>1.030488510105351</v>
       </c>
       <c r="L17">
-        <v>0.9717148415200723</v>
+        <v>1.01368182679472</v>
       </c>
       <c r="M17">
-        <v>0.9650121367287833</v>
+        <v>1.023726344380258</v>
       </c>
       <c r="N17">
-        <v>0.9726762716596602</v>
+        <v>1.01530388785719</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9429445887678671</v>
+        <v>1.007766367832308</v>
       </c>
       <c r="D18">
-        <v>1.021695373381966</v>
+        <v>1.027200119140072</v>
       </c>
       <c r="E18">
-        <v>0.9581586363768123</v>
+        <v>1.010463777265698</v>
       </c>
       <c r="F18">
-        <v>0.9520114122509258</v>
+        <v>1.020641400734278</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045001940131562</v>
+        <v>1.030309993355115</v>
       </c>
       <c r="J18">
-        <v>0.972350963775678</v>
+        <v>1.014062156370213</v>
       </c>
       <c r="K18">
-        <v>1.035149837579527</v>
+        <v>1.030554601313496</v>
       </c>
       <c r="L18">
-        <v>0.9727409277689034</v>
+        <v>1.013877978279084</v>
       </c>
       <c r="M18">
-        <v>0.9667133066274231</v>
+        <v>1.024019028436331</v>
       </c>
       <c r="N18">
-        <v>0.9737318136744537</v>
+        <v>1.015502240946814</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9434738701500466</v>
+        <v>1.007862421013543</v>
       </c>
       <c r="D19">
-        <v>1.021936482773432</v>
+        <v>1.027237160710456</v>
       </c>
       <c r="E19">
-        <v>0.9585834023382597</v>
+        <v>1.010545659167395</v>
       </c>
       <c r="F19">
-        <v>0.9526698708292666</v>
+        <v>1.020756059863573</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045125019644065</v>
+        <v>1.030320251042939</v>
       </c>
       <c r="J19">
-        <v>0.9727083312341908</v>
+        <v>1.014129672141652</v>
       </c>
       <c r="K19">
-        <v>1.035324437701764</v>
+        <v>1.030577068097479</v>
       </c>
       <c r="L19">
-        <v>0.9730888783370961</v>
+        <v>1.013944844835894</v>
       </c>
       <c r="M19">
-        <v>0.9672896066652729</v>
+        <v>1.024118730434403</v>
       </c>
       <c r="N19">
-        <v>0.9740896886357484</v>
+        <v>1.015569852598392</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9410951279320817</v>
+        <v>1.007432794331597</v>
       </c>
       <c r="D20">
-        <v>1.020852673439583</v>
+        <v>1.027071288709237</v>
       </c>
       <c r="E20">
-        <v>0.9566751931956748</v>
+        <v>1.010179446802759</v>
       </c>
       <c r="F20">
-        <v>0.9497085958013241</v>
+        <v>1.020242936079603</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044570209537711</v>
+        <v>1.030274106359939</v>
       </c>
       <c r="J20">
-        <v>0.9711020586543408</v>
+        <v>1.013827640478709</v>
       </c>
       <c r="K20">
-        <v>1.034538503007033</v>
+        <v>1.030476320569007</v>
       </c>
       <c r="L20">
-        <v>0.9715251802160362</v>
+        <v>1.013645738579692</v>
       </c>
       <c r="M20">
-        <v>0.96469741858846</v>
+        <v>1.023672461897711</v>
       </c>
       <c r="N20">
-        <v>0.9724811349645928</v>
+        <v>1.015267392015845</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9331468048056727</v>
+        <v>1.006035066257158</v>
       </c>
       <c r="D21">
-        <v>1.01722958911796</v>
+        <v>1.026528283310985</v>
       </c>
       <c r="E21">
-        <v>0.9503142168856579</v>
+        <v>1.008988541394068</v>
       </c>
       <c r="F21">
-        <v>0.9397783883765315</v>
+        <v>1.018568707887153</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04268779369769</v>
+        <v>1.030119350696332</v>
       </c>
       <c r="J21">
-        <v>0.9657322943513188</v>
+        <v>1.012844198372178</v>
       </c>
       <c r="K21">
-        <v>1.031891732112565</v>
+        <v>1.030144031768088</v>
       </c>
       <c r="L21">
-        <v>0.9663022738702198</v>
+        <v>1.01267219388557</v>
       </c>
       <c r="M21">
-        <v>0.955998141621485</v>
+        <v>1.022214949659526</v>
       </c>
       <c r="N21">
-        <v>0.9671037449803398</v>
+        <v>1.014282553308719</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9279718059853937</v>
+        <v>1.005155493957107</v>
       </c>
       <c r="D22">
-        <v>1.014871765993452</v>
+        <v>1.026184015943033</v>
       </c>
       <c r="E22">
-        <v>0.9461852003484871</v>
+        <v>1.008239518082255</v>
       </c>
       <c r="F22">
-        <v>0.9332854098802081</v>
+        <v>1.017511416401771</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041441389316006</v>
+        <v>1.030018424404569</v>
       </c>
       <c r="J22">
-        <v>0.9622345513116392</v>
+        <v>1.012224699584895</v>
       </c>
       <c r="K22">
-        <v>1.030154257234496</v>
+        <v>1.029931474640954</v>
       </c>
       <c r="L22">
-        <v>0.9629038255036303</v>
+        <v>1.012059215563109</v>
       </c>
       <c r="M22">
-        <v>0.9503054131187992</v>
+        <v>1.021293433969382</v>
       </c>
       <c r="N22">
-        <v>0.9636010347443476</v>
+        <v>1.013662174762102</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.930732890060181</v>
+        <v>1.005621845804848</v>
       </c>
       <c r="D23">
-        <v>1.01612950416694</v>
+        <v>1.026366789017498</v>
       </c>
       <c r="E23">
-        <v>0.948386981761362</v>
+        <v>1.008636614445017</v>
       </c>
       <c r="F23">
-        <v>0.9367523006651192</v>
+        <v>1.018072348104115</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042108264183827</v>
+        <v>1.030072270722477</v>
       </c>
       <c r="J23">
-        <v>0.9641008706180725</v>
+        <v>1.012553219388124</v>
       </c>
       <c r="K23">
-        <v>1.031082490517439</v>
+        <v>1.030044499273701</v>
       </c>
       <c r="L23">
-        <v>0.9647168135585675</v>
+        <v>1.012384250459518</v>
       </c>
       <c r="M23">
-        <v>0.9533454050205379</v>
+        <v>1.021782433659608</v>
       </c>
       <c r="N23">
-        <v>0.9654700044382655</v>
+        <v>1.013991161101133</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9412255606500838</v>
+        <v>1.007456214768037</v>
       </c>
       <c r="D24">
-        <v>1.020912113258284</v>
+        <v>1.027080343697817</v>
       </c>
       <c r="E24">
-        <v>0.9567797713115017</v>
+        <v>1.010199408381864</v>
       </c>
       <c r="F24">
-        <v>0.9498711009507596</v>
+        <v>1.020270926531837</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044600740091477</v>
+        <v>1.030276639346022</v>
       </c>
       <c r="J24">
-        <v>0.9711901452616941</v>
+        <v>1.013844108387407</v>
       </c>
       <c r="K24">
-        <v>1.034581678474489</v>
+        <v>1.030481829745161</v>
       </c>
       <c r="L24">
-        <v>0.9716109156089411</v>
+        <v>1.013662045583888</v>
       </c>
       <c r="M24">
-        <v>0.9648396958141127</v>
+        <v>1.023696810817492</v>
       </c>
       <c r="N24">
-        <v>0.9725693466650326</v>
+        <v>1.015283883310861</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9527091616187833</v>
+        <v>1.009581705315051</v>
       </c>
       <c r="D25">
-        <v>1.026136754279737</v>
+        <v>1.027895884775391</v>
       </c>
       <c r="E25">
-        <v>0.9660117007269999</v>
+        <v>1.012011925387101</v>
       </c>
       <c r="F25">
-        <v>0.9641166160441559</v>
+        <v>1.02280224431607</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047235377336141</v>
+        <v>1.030497985149791</v>
       </c>
       <c r="J25">
-        <v>0.9789400364586761</v>
+        <v>1.015337109338483</v>
       </c>
       <c r="K25">
-        <v>1.038342440744195</v>
+        <v>1.030973463410629</v>
       </c>
       <c r="L25">
-        <v>0.9791615986211698</v>
+        <v>1.01514113970018</v>
       </c>
       <c r="M25">
-        <v>0.9772987467221513</v>
+        <v>1.025896190058279</v>
       </c>
       <c r="N25">
-        <v>0.9803302435964391</v>
+        <v>1.016779004494538</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_102/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_102/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011274565685031</v>
+        <v>0.9613860128494947</v>
       </c>
       <c r="D2">
-        <v>1.02853621527831</v>
+        <v>1.030063006030439</v>
       </c>
       <c r="E2">
-        <v>1.013456855504116</v>
+        <v>0.973019762674332</v>
       </c>
       <c r="F2">
-        <v>1.024805272200165</v>
+        <v>0.9747914523306583</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03066174483276</v>
+        <v>1.049144040049307</v>
       </c>
       <c r="J2">
-        <v>1.016523982702583</v>
+        <v>0.9847863636110582</v>
       </c>
       <c r="K2">
-        <v>1.031352746829687</v>
+        <v>1.04111881986976</v>
       </c>
       <c r="L2">
-        <v>1.0163179513266</v>
+        <v>0.9848682270406979</v>
       </c>
       <c r="M2">
-        <v>1.027632697022692</v>
+        <v>0.9866135240812136</v>
       </c>
       <c r="N2">
-        <v>1.017967563354951</v>
+        <v>0.9861848732039606</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012502400820087</v>
+        <v>0.9674385577747386</v>
       </c>
       <c r="D3">
-        <v>1.028995235621454</v>
+        <v>1.032783301542322</v>
       </c>
       <c r="E3">
-        <v>1.014505626989326</v>
+        <v>0.9779250765521973</v>
       </c>
       <c r="F3">
-        <v>1.02625049380944</v>
+        <v>0.9821863184351141</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03077321492864</v>
+        <v>1.050424550373161</v>
       </c>
       <c r="J3">
-        <v>1.017383520173195</v>
+        <v>0.9888580325569568</v>
       </c>
       <c r="K3">
-        <v>1.031620664893503</v>
+        <v>1.04301321740452</v>
       </c>
       <c r="L3">
-        <v>1.017170776662011</v>
+        <v>0.9888484256336764</v>
       </c>
       <c r="M3">
-        <v>1.028883354028757</v>
+        <v>0.9930523195764449</v>
       </c>
       <c r="N3">
-        <v>1.018828321467362</v>
+        <v>0.9902623243867892</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013296300454315</v>
+        <v>0.9712497032747957</v>
       </c>
       <c r="D4">
-        <v>1.029289502745805</v>
+        <v>1.034485813944529</v>
       </c>
       <c r="E4">
-        <v>1.015184093410783</v>
+        <v>0.9810210467504928</v>
       </c>
       <c r="F4">
-        <v>1.027181442250794</v>
+        <v>0.9868188310054933</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030841896708439</v>
+        <v>1.051206234839832</v>
       </c>
       <c r="J4">
-        <v>1.017938678159727</v>
+        <v>0.9914185759958534</v>
       </c>
       <c r="K4">
-        <v>1.031790556900791</v>
+        <v>1.044185106271428</v>
       </c>
       <c r="L4">
-        <v>1.017721864839092</v>
+        <v>0.9913540598249336</v>
       </c>
       <c r="M4">
-        <v>1.029687914664434</v>
+        <v>0.9970789882309596</v>
       </c>
       <c r="N4">
-        <v>1.019384267841912</v>
+        <v>0.9928265040910674</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013629917383936</v>
+        <v>0.972827976823424</v>
       </c>
       <c r="D5">
-        <v>1.029412552283105</v>
+        <v>1.035188102239992</v>
       </c>
       <c r="E5">
-        <v>1.015469284551913</v>
+        <v>0.9823048022638829</v>
       </c>
       <c r="F5">
-        <v>1.027571809621712</v>
+        <v>0.9887314996943841</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030869944160312</v>
+        <v>1.051523879467196</v>
       </c>
       <c r="J5">
-        <v>1.018171824287327</v>
+        <v>0.9924781155165275</v>
       </c>
       <c r="K5">
-        <v>1.031861147344941</v>
+        <v>1.044665173912936</v>
       </c>
       <c r="L5">
-        <v>1.017953365290317</v>
+        <v>0.9923914951150228</v>
       </c>
       <c r="M5">
-        <v>1.030025029930159</v>
+        <v>0.9987397871008004</v>
       </c>
       <c r="N5">
-        <v>1.019617745063755</v>
+        <v>0.9938875482793921</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013685925106522</v>
+        <v>0.9730916075751104</v>
       </c>
       <c r="D6">
-        <v>1.029433174056169</v>
+        <v>1.035305241074721</v>
       </c>
       <c r="E6">
-        <v>1.015517167334347</v>
+        <v>0.9825193323418889</v>
       </c>
       <c r="F6">
-        <v>1.027637295289126</v>
+        <v>0.9890506479929911</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030874604956507</v>
+        <v>1.051576576689384</v>
       </c>
       <c r="J6">
-        <v>1.018210956396288</v>
+        <v>0.9926550479635294</v>
       </c>
       <c r="K6">
-        <v>1.031872950942328</v>
+        <v>1.044745049469582</v>
       </c>
       <c r="L6">
-        <v>1.017992224905394</v>
+        <v>0.9925647723842871</v>
       </c>
       <c r="M6">
-        <v>1.030081567346615</v>
+        <v>0.9990168045945785</v>
       </c>
       <c r="N6">
-        <v>1.0196569327448</v>
+        <v>0.9940647319907632</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013300758800292</v>
+        <v>0.9712708846747691</v>
       </c>
       <c r="D7">
-        <v>1.029291149537283</v>
+        <v>1.034495250330767</v>
       </c>
       <c r="E7">
-        <v>1.015187904288528</v>
+        <v>0.981038269108794</v>
       </c>
       <c r="F7">
-        <v>1.027186662297118</v>
+        <v>0.9868445229751956</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030842274728561</v>
+        <v>1.051210522031768</v>
       </c>
       <c r="J7">
-        <v>1.017941794419407</v>
+        <v>0.9914327990234176</v>
       </c>
       <c r="K7">
-        <v>1.031791503405852</v>
+        <v>1.04419157004954</v>
       </c>
       <c r="L7">
-        <v>1.017724958852899</v>
+        <v>0.9913679837015937</v>
       </c>
       <c r="M7">
-        <v>1.029692423621076</v>
+        <v>0.9971013038943967</v>
       </c>
       <c r="N7">
-        <v>1.019387388527038</v>
+        <v>0.9928407473169623</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011689642790092</v>
+        <v>0.9634540860975299</v>
       </c>
       <c r="D8">
-        <v>1.028691911481741</v>
+        <v>1.030994518898065</v>
       </c>
       <c r="E8">
-        <v>1.013811326775708</v>
+        <v>0.9746942737873487</v>
       </c>
       <c r="F8">
-        <v>1.025294564878773</v>
+        <v>0.9773231919791152</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030700129662548</v>
+        <v>1.049586660986504</v>
       </c>
       <c r="J8">
-        <v>1.0168146798471</v>
+        <v>0.9861782635421277</v>
       </c>
       <c r="K8">
-        <v>1.031444008255411</v>
+        <v>1.041770399439426</v>
       </c>
       <c r="L8">
-        <v>1.016606323357727</v>
+        <v>0.9862283002140121</v>
       </c>
       <c r="M8">
-        <v>1.028056336844365</v>
+        <v>0.9888193564344158</v>
       </c>
       <c r="N8">
-        <v>1.018258673322757</v>
+        <v>0.9875787497925852</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.008845973171714</v>
+        <v>0.9488113732856022</v>
       </c>
       <c r="D9">
-        <v>1.027615005125369</v>
+        <v>1.024365915265104</v>
       </c>
       <c r="E9">
-        <v>1.011384318510748</v>
+        <v>0.962872707973362</v>
       </c>
       <c r="F9">
-        <v>1.021928057433384</v>
+        <v>0.9592955396478091</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030423302941615</v>
+        <v>1.046353678246707</v>
       </c>
       <c r="J9">
-        <v>1.014820657002179</v>
+        <v>0.9763108970327337</v>
       </c>
       <c r="K9">
-        <v>1.030805180663596</v>
+        <v>1.037075665897082</v>
       </c>
       <c r="L9">
-        <v>1.014629343716847</v>
+        <v>0.9765983109850902</v>
       </c>
       <c r="M9">
-        <v>1.025137233537864</v>
+        <v>0.973085447720811</v>
       </c>
       <c r="N9">
-        <v>1.016261818736679</v>
+        <v>0.9776973704909454</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.006946842443587</v>
+        <v>0.9383686786572218</v>
       </c>
       <c r="D10">
-        <v>1.0268830783563</v>
+        <v>1.019609985338509</v>
       </c>
       <c r="E10">
-        <v>1.009765312790407</v>
+        <v>0.9544906194999635</v>
       </c>
       <c r="F10">
-        <v>1.019661688225166</v>
+        <v>0.9463083348005105</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030221098410078</v>
+        <v>1.043929250939155</v>
       </c>
       <c r="J10">
-        <v>1.013485866536836</v>
+        <v>0.9692605190460045</v>
       </c>
       <c r="K10">
-        <v>1.030361570022238</v>
+        <v>1.033633977731288</v>
       </c>
       <c r="L10">
-        <v>1.013307340221098</v>
+        <v>0.9697332276596083</v>
       </c>
       <c r="M10">
-        <v>1.023166695640034</v>
+        <v>0.9617197458158574</v>
       </c>
       <c r="N10">
-        <v>1.014925132715772</v>
+        <v>0.9706369801587853</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.006123656106344</v>
+        <v>0.9336604133808123</v>
       </c>
       <c r="D11">
-        <v>1.026562849577683</v>
+        <v>1.01746369461639</v>
       </c>
       <c r="E11">
-        <v>1.009063999406542</v>
+        <v>0.9507245511832551</v>
       </c>
       <c r="F11">
-        <v>1.018675039880131</v>
+        <v>0.9404216485834441</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030129366162488</v>
+        <v>1.042810658310908</v>
       </c>
       <c r="J11">
-        <v>1.012906567117103</v>
+        <v>0.9660793805428961</v>
       </c>
       <c r="K11">
-        <v>1.030165294451493</v>
+        <v>1.032063618592815</v>
       </c>
       <c r="L11">
-        <v>1.012733918284392</v>
+        <v>0.9666396610345711</v>
       </c>
       <c r="M11">
-        <v>1.022307581042747</v>
+        <v>0.9565619426236788</v>
       </c>
       <c r="N11">
-        <v>1.014345010624417</v>
+        <v>0.9674513240741207</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.005817756154902</v>
+        <v>0.931881107745566</v>
       </c>
       <c r="D12">
-        <v>1.026443408192872</v>
+        <v>1.016652732616131</v>
       </c>
       <c r="E12">
-        <v>1.008803456746802</v>
+        <v>0.949303435094817</v>
       </c>
       <c r="F12">
-        <v>1.018307753649629</v>
+        <v>0.9381922849215872</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03009466606873</v>
+        <v>1.042384347360103</v>
       </c>
       <c r="J12">
-        <v>1.012691187580854</v>
+        <v>0.9648769132695625</v>
       </c>
       <c r="K12">
-        <v>1.030091760776301</v>
+        <v>1.031467698727042</v>
       </c>
       <c r="L12">
-        <v>1.012520773318444</v>
+        <v>0.9654709153335104</v>
       </c>
       <c r="M12">
-        <v>1.021987583092373</v>
+        <v>0.9546078175950753</v>
       </c>
       <c r="N12">
-        <v>1.014129325224522</v>
+        <v>0.966247149159334</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.005883378768562</v>
+        <v>0.9322641946879371</v>
       </c>
       <c r="D13">
-        <v>1.026469051112548</v>
+        <v>1.016827319763365</v>
       </c>
       <c r="E13">
-        <v>1.008859346048697</v>
+        <v>0.949609304968097</v>
       </c>
       <c r="F13">
-        <v>1.018386574134373</v>
+        <v>0.9386724837495543</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030102137701758</v>
+        <v>1.042476290226817</v>
       </c>
       <c r="J13">
-        <v>1.012737396403895</v>
+        <v>0.9651358174972494</v>
       </c>
       <c r="K13">
-        <v>1.030107562407695</v>
+        <v>1.031596106682854</v>
       </c>
       <c r="L13">
-        <v>1.012566500488306</v>
+        <v>0.9657225305706544</v>
       </c>
       <c r="M13">
-        <v>1.022056263837041</v>
+        <v>0.9550287648401121</v>
       </c>
       <c r="N13">
-        <v>1.014175599669391</v>
+        <v>0.9665064210607212</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.006098373035732</v>
+        <v>0.933513971561613</v>
       </c>
       <c r="D14">
-        <v>1.026552986587392</v>
+        <v>1.017396944547067</v>
       </c>
       <c r="E14">
-        <v>1.009042463774448</v>
+        <v>0.950607545388517</v>
       </c>
       <c r="F14">
-        <v>1.018644696260421</v>
+        <v>0.9402382617391934</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030126510621029</v>
+        <v>1.042775642915947</v>
       </c>
       <c r="J14">
-        <v>1.012888767912514</v>
+        <v>0.9659804193587742</v>
       </c>
       <c r="K14">
-        <v>1.030159228943182</v>
+        <v>1.03201462070004</v>
       </c>
       <c r="L14">
-        <v>1.012716302739939</v>
+        <v>0.9665434623709606</v>
       </c>
       <c r="M14">
-        <v>1.022281147982192</v>
+        <v>0.9564012123212271</v>
       </c>
       <c r="N14">
-        <v>1.014327186142916</v>
+        <v>0.9673522223537665</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.006230820497123</v>
+        <v>0.9342798885097051</v>
       </c>
       <c r="D15">
-        <v>1.026604636568748</v>
+        <v>1.017746068005424</v>
       </c>
       <c r="E15">
-        <v>1.009155282787606</v>
+        <v>0.9512195939070829</v>
       </c>
       <c r="F15">
-        <v>1.018803627499988</v>
+        <v>0.9411972156053363</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03014144456633</v>
+        <v>1.04295863554171</v>
       </c>
       <c r="J15">
-        <v>1.012982006055535</v>
+        <v>0.9664979931583824</v>
       </c>
       <c r="K15">
-        <v>1.030190979194253</v>
+        <v>1.032270790310125</v>
       </c>
       <c r="L15">
-        <v>1.012808580831506</v>
+        <v>0.9670466133357235</v>
       </c>
       <c r="M15">
-        <v>1.022419589184444</v>
+        <v>0.9572416604221203</v>
       </c>
       <c r="N15">
-        <v>1.014420556694794</v>
+        <v>0.9678705311675367</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.007001456342757</v>
+        <v>0.9386770205364473</v>
       </c>
       <c r="D16">
-        <v>1.026904261502182</v>
+        <v>1.019750540004651</v>
       </c>
       <c r="E16">
-        <v>1.009811850672825</v>
+        <v>0.954737541906734</v>
       </c>
       <c r="F16">
-        <v>1.019727056788365</v>
+        <v>0.9466932019450263</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030227098455601</v>
+        <v>1.044001998977352</v>
       </c>
       <c r="J16">
-        <v>1.013524284559835</v>
+        <v>0.9694688074446438</v>
       </c>
       <c r="K16">
-        <v>1.030374508026889</v>
+        <v>1.033736461311315</v>
       </c>
       <c r="L16">
-        <v>1.013345375371713</v>
+        <v>0.9699358663107434</v>
       </c>
       <c r="M16">
-        <v>1.023223588443539</v>
+        <v>0.9620568426667978</v>
       </c>
       <c r="N16">
-        <v>1.014963605296771</v>
+        <v>0.9708455643508418</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.007484625301137</v>
+        <v>0.941383665786674</v>
       </c>
       <c r="D17">
-        <v>1.027091326033321</v>
+        <v>1.020984162166444</v>
       </c>
       <c r="E17">
-        <v>1.010223623390185</v>
+        <v>0.956906544972887</v>
       </c>
       <c r="F17">
-        <v>1.020304877972666</v>
+        <v>0.9500680628139677</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030279709329392</v>
+        <v>1.044637731312799</v>
       </c>
       <c r="J17">
-        <v>1.013864084565271</v>
+        <v>0.9712969186258975</v>
       </c>
       <c r="K17">
-        <v>1.030488510105351</v>
+        <v>1.034634001733895</v>
       </c>
       <c r="L17">
-        <v>1.01368182679472</v>
+        <v>0.9717148415200721</v>
       </c>
       <c r="M17">
-        <v>1.023726344380258</v>
+        <v>0.9650121367287837</v>
       </c>
       <c r="N17">
-        <v>1.01530388785719</v>
+        <v>0.9726762716596601</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007766367832308</v>
+        <v>0.9429445887678684</v>
       </c>
       <c r="D18">
-        <v>1.027200119140072</v>
+        <v>1.021695373381966</v>
       </c>
       <c r="E18">
-        <v>1.010463777265698</v>
+        <v>0.9581586363768135</v>
       </c>
       <c r="F18">
-        <v>1.020641400734278</v>
+        <v>0.9520114122509262</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030309993355115</v>
+        <v>1.045001940131561</v>
       </c>
       <c r="J18">
-        <v>1.014062156370213</v>
+        <v>0.9723509637756793</v>
       </c>
       <c r="K18">
-        <v>1.030554601313496</v>
+        <v>1.035149837579526</v>
       </c>
       <c r="L18">
-        <v>1.013877978279084</v>
+        <v>0.9727409277689048</v>
       </c>
       <c r="M18">
-        <v>1.024019028436331</v>
+        <v>0.9667133066274234</v>
       </c>
       <c r="N18">
-        <v>1.015502240946814</v>
+        <v>0.973731813674455</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.007862421013543</v>
+        <v>0.9434738701500465</v>
       </c>
       <c r="D19">
-        <v>1.027237160710456</v>
+        <v>1.021936482773432</v>
       </c>
       <c r="E19">
-        <v>1.010545659167395</v>
+        <v>0.9585834023382594</v>
       </c>
       <c r="F19">
-        <v>1.020756059863573</v>
+        <v>0.9526698708292662</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030320251042939</v>
+        <v>1.045125019644065</v>
       </c>
       <c r="J19">
-        <v>1.014129672141652</v>
+        <v>0.9727083312341905</v>
       </c>
       <c r="K19">
-        <v>1.030577068097479</v>
+        <v>1.035324437701764</v>
       </c>
       <c r="L19">
-        <v>1.013944844835894</v>
+        <v>0.9730888783370958</v>
       </c>
       <c r="M19">
-        <v>1.024118730434403</v>
+        <v>0.9672896066652725</v>
       </c>
       <c r="N19">
-        <v>1.015569852598392</v>
+        <v>0.9740896886357481</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.007432794331597</v>
+        <v>0.9410951279320811</v>
       </c>
       <c r="D20">
-        <v>1.027071288709237</v>
+        <v>1.020852673439583</v>
       </c>
       <c r="E20">
-        <v>1.010179446802759</v>
+        <v>0.9566751931956743</v>
       </c>
       <c r="F20">
-        <v>1.020242936079603</v>
+        <v>0.9497085958013243</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030274106359939</v>
+        <v>1.044570209537711</v>
       </c>
       <c r="J20">
-        <v>1.013827640478709</v>
+        <v>0.9711020586543404</v>
       </c>
       <c r="K20">
-        <v>1.030476320569007</v>
+        <v>1.034538503007033</v>
       </c>
       <c r="L20">
-        <v>1.013645738579692</v>
+        <v>0.9715251802160356</v>
       </c>
       <c r="M20">
-        <v>1.023672461897711</v>
+        <v>0.96469741858846</v>
       </c>
       <c r="N20">
-        <v>1.015267392015845</v>
+        <v>0.9724811349645923</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.006035066257158</v>
+        <v>0.9331468048056724</v>
       </c>
       <c r="D21">
-        <v>1.026528283310985</v>
+        <v>1.01722958911796</v>
       </c>
       <c r="E21">
-        <v>1.008988541394068</v>
+        <v>0.9503142168856574</v>
       </c>
       <c r="F21">
-        <v>1.018568707887153</v>
+        <v>0.9397783883765314</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030119350696332</v>
+        <v>1.04268779369769</v>
       </c>
       <c r="J21">
-        <v>1.012844198372178</v>
+        <v>0.9657322943513187</v>
       </c>
       <c r="K21">
-        <v>1.030144031768088</v>
+        <v>1.031891732112565</v>
       </c>
       <c r="L21">
-        <v>1.01267219388557</v>
+        <v>0.9663022738702196</v>
       </c>
       <c r="M21">
-        <v>1.022214949659526</v>
+        <v>0.9559981416214849</v>
       </c>
       <c r="N21">
-        <v>1.014282553308719</v>
+        <v>0.9671037449803398</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.005155493957107</v>
+        <v>0.9279718059853928</v>
       </c>
       <c r="D22">
-        <v>1.026184015943033</v>
+        <v>1.014871765993451</v>
       </c>
       <c r="E22">
-        <v>1.008239518082255</v>
+        <v>0.9461852003484865</v>
       </c>
       <c r="F22">
-        <v>1.017511416401771</v>
+        <v>0.9332854098802075</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030018424404569</v>
+        <v>1.041441389316006</v>
       </c>
       <c r="J22">
-        <v>1.012224699584895</v>
+        <v>0.962234551311638</v>
       </c>
       <c r="K22">
-        <v>1.029931474640954</v>
+        <v>1.030154257234496</v>
       </c>
       <c r="L22">
-        <v>1.012059215563109</v>
+        <v>0.9629038255036294</v>
       </c>
       <c r="M22">
-        <v>1.021293433969382</v>
+        <v>0.9503054131187987</v>
       </c>
       <c r="N22">
-        <v>1.013662174762102</v>
+        <v>0.9636010347443461</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.005621845804848</v>
+        <v>0.9307328900601805</v>
       </c>
       <c r="D23">
-        <v>1.026366789017498</v>
+        <v>1.01612950416694</v>
       </c>
       <c r="E23">
-        <v>1.008636614445017</v>
+        <v>0.9483869817613617</v>
       </c>
       <c r="F23">
-        <v>1.018072348104115</v>
+        <v>0.9367523006651191</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030072270722477</v>
+        <v>1.042108264183828</v>
       </c>
       <c r="J23">
-        <v>1.012553219388124</v>
+        <v>0.9641008706180721</v>
       </c>
       <c r="K23">
-        <v>1.030044499273701</v>
+        <v>1.031082490517439</v>
       </c>
       <c r="L23">
-        <v>1.012384250459518</v>
+        <v>0.9647168135585671</v>
       </c>
       <c r="M23">
-        <v>1.021782433659608</v>
+        <v>0.9533454050205378</v>
       </c>
       <c r="N23">
-        <v>1.013991161101133</v>
+        <v>0.9654700044382654</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.007456214768037</v>
+        <v>0.9412255606500832</v>
       </c>
       <c r="D24">
-        <v>1.027080343697817</v>
+        <v>1.020912113258283</v>
       </c>
       <c r="E24">
-        <v>1.010199408381864</v>
+        <v>0.956779771311501</v>
       </c>
       <c r="F24">
-        <v>1.020270926531837</v>
+        <v>0.9498711009507594</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030276639346022</v>
+        <v>1.044600740091477</v>
       </c>
       <c r="J24">
-        <v>1.013844108387407</v>
+        <v>0.9711901452616937</v>
       </c>
       <c r="K24">
-        <v>1.030481829745161</v>
+        <v>1.034581678474489</v>
       </c>
       <c r="L24">
-        <v>1.013662045583888</v>
+        <v>0.9716109156089404</v>
       </c>
       <c r="M24">
-        <v>1.023696810817492</v>
+        <v>0.9648396958141127</v>
       </c>
       <c r="N24">
-        <v>1.015283883310861</v>
+        <v>0.9725693466650321</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.009581705315051</v>
+        <v>0.9527091616187836</v>
       </c>
       <c r="D25">
-        <v>1.027895884775391</v>
+        <v>1.026136754279737</v>
       </c>
       <c r="E25">
-        <v>1.012011925387101</v>
+        <v>0.9660117007270002</v>
       </c>
       <c r="F25">
-        <v>1.02280224431607</v>
+        <v>0.9641166160441561</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030497985149791</v>
+        <v>1.047235377336141</v>
       </c>
       <c r="J25">
-        <v>1.015337109338483</v>
+        <v>0.9789400364586766</v>
       </c>
       <c r="K25">
-        <v>1.030973463410629</v>
+        <v>1.038342440744195</v>
       </c>
       <c r="L25">
-        <v>1.01514113970018</v>
+        <v>0.9791615986211701</v>
       </c>
       <c r="M25">
-        <v>1.025896190058279</v>
+        <v>0.9772987467221513</v>
       </c>
       <c r="N25">
-        <v>1.016779004494538</v>
+        <v>0.9803302435964395</v>
       </c>
     </row>
   </sheetData>
